--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmoschem.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmoschem.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Transport" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Emissions Concentrations" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Gas Phase Chemistry" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Stratospheric Heterogeneous " sheetId="7" r:id="rId7"/>
-    <sheet name="7. Tropospheric Heterogeneous C" sheetId="8" r:id="rId8"/>
-    <sheet name="8. Photo Chemistry" sheetId="9" r:id="rId9"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Emissions Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
+    <sheet name="7. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
+    <sheet name="8. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
+    <sheet name="9. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="507">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -54,28 +55,37 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Transport</t>
-  </si>
-  <si>
-    <t>4. Emissions Concentrations</t>
-  </si>
-  <si>
-    <t>5. Gas Phase Chemistry</t>
-  </si>
-  <si>
-    <t>6. Stratospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>7. Tropospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>8. Photo Chemistry</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Transport</t>
+  </si>
+  <si>
+    <t>5. Emissions Concentrations</t>
+  </si>
+  <si>
+    <t>6. Gas Phase Chemistry</t>
+  </si>
+  <si>
+    <t>7. Stratospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>8. Tropospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>9. Photo Chemistry</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -87,27 +97,54 @@
     <t>Specialization Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Key properties of the atmospheric chemistry</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of atmoschem model code</t>
   </si>
   <si>
@@ -117,7 +154,7 @@
     <t>GFDL atmospheric chemistry</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -132,7 +169,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -147,7 +184,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.1.4 *</t>
+    <t>2.1.4 *</t>
   </si>
   <si>
     <t>Chemistry Scheme Scope</t>
@@ -162,9 +199,6 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Other: troposphere</t>
   </si>
   <si>
@@ -183,7 +217,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.1.5 *</t>
+    <t>2.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -198,7 +232,7 @@
     <t>Lumped higher hydrocarbon species and oxidation products, parameterized source of Cly and Bry in stratosphere, short-lived species not advected</t>
   </si>
   <si>
-    <t>1.1.6 *</t>
+    <t>2.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -213,7 +247,7 @@
     <t>3D mass/mixing ratio for gas</t>
   </si>
   <si>
-    <t>1.1.7 *</t>
+    <t>2.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -228,7 +262,7 @@
     <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>1.1.8 *</t>
+    <t>2.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -243,7 +277,7 @@
     <t>cmip6.atmoschem.key_properties.family_approach</t>
   </si>
   <si>
-    <t>1.1.9 *</t>
+    <t>2.1.9 *</t>
   </si>
   <si>
     <t>Coupling With Chemical Reactivity</t>
@@ -255,7 +289,7 @@
     <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -264,7 +298,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -276,7 +310,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2 </t>
+    <t xml:space="preserve">2.2.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -288,7 +322,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3 </t>
+    <t xml:space="preserve">2.2.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -300,7 +334,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -309,7 +343,7 @@
     <t>Timestepping in the atmospheric chemistry model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of timestepping in the atmospheric chemistry model in atmoschem model.</t>
@@ -318,7 +352,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -336,7 +370,7 @@
     <t>Integrated</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -348,7 +382,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.4 </t>
+    <t xml:space="preserve">2.3.4 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -360,7 +394,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.5 </t>
+    <t xml:space="preserve">2.3.5 </t>
   </si>
   <si>
     <t>Split Operator Chemistry Timestep</t>
@@ -372,7 +406,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.6 </t>
+    <t xml:space="preserve">2.3.6 </t>
   </si>
   <si>
     <t>Split Operator Alternate Order</t>
@@ -384,7 +418,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
   </si>
   <si>
-    <t>1.3.7 *</t>
+    <t>2.3.7 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -396,7 +430,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>1.3.8 *</t>
+    <t>2.3.8 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -432,13 +466,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Turbulence</t>
@@ -450,7 +484,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2 </t>
+    <t xml:space="preserve">2.4.2 </t>
   </si>
   <si>
     <t>Convection</t>
@@ -462,7 +496,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.3 </t>
+    <t xml:space="preserve">2.4.3 </t>
   </si>
   <si>
     <t>Precipitation</t>
@@ -474,7 +508,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.4 </t>
+    <t xml:space="preserve">2.4.4 </t>
   </si>
   <si>
     <t>Emissions</t>
@@ -486,7 +520,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.5 </t>
+    <t xml:space="preserve">2.4.5 </t>
   </si>
   <si>
     <t>Deposition</t>
@@ -498,7 +532,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.6 </t>
+    <t xml:space="preserve">2.4.6 </t>
   </si>
   <si>
     <t>Gas Phase Chemistry</t>
@@ -510,7 +544,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.7 </t>
+    <t xml:space="preserve">2.4.7 </t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Phase Chemistry</t>
@@ -522,7 +556,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.8 </t>
+    <t xml:space="preserve">2.4.8 </t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Phase Chemistry</t>
@@ -534,7 +568,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.9 </t>
+    <t xml:space="preserve">2.4.9 </t>
   </si>
   <si>
     <t>Photo Chemistry</t>
@@ -546,7 +580,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.10 </t>
+    <t xml:space="preserve">2.4.10 </t>
   </si>
   <si>
     <t>Aerosols</t>
@@ -558,7 +592,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -567,7 +601,7 @@
     <t>Tuning methodology for atmospheric chemistry component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of tuning methodology for atmospheric chemistry component in atmoschem model.</t>
@@ -576,7 +610,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -588,7 +622,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.3 </t>
+    <t xml:space="preserve">2.5.3 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -600,7 +634,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4 </t>
+    <t xml:space="preserve">2.5.4 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -612,7 +646,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.5 </t>
+    <t xml:space="preserve">2.5.5 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -624,7 +658,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -633,7 +667,7 @@
     <t>Atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in atmoschem model.</t>
@@ -642,7 +676,7 @@
     <t>cmip6.atmoschem.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in atmoschem model.</t>
@@ -651,7 +685,7 @@
     <t>cmip6.atmoschem.grid.overview</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>3.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -663,7 +697,7 @@
     <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -672,7 +706,7 @@
     <t>Resolution in the atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the atmospheric chemistry grid in atmoschem model.</t>
@@ -681,7 +715,7 @@
     <t>cmip6.atmoschem.grid.resolution.overview</t>
   </si>
   <si>
-    <t>2.2.2 *</t>
+    <t>3.2.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -690,7 +724,7 @@
     <t>cmip6.atmoschem.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">3.2.3 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -702,7 +736,7 @@
     <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.4 </t>
+    <t xml:space="preserve">3.2.4 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -714,7 +748,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.5 </t>
+    <t xml:space="preserve">3.2.5 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -726,7 +760,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.6 </t>
+    <t xml:space="preserve">3.2.6 </t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -738,7 +772,7 @@
     <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -747,7 +781,7 @@
     <t>Atmospheric chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in atmoschem model.</t>
@@ -756,7 +790,7 @@
     <t>cmip6.atmoschem.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
@@ -765,7 +799,7 @@
     <t>cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Use Atmospheric Transport</t>
@@ -777,7 +811,7 @@
     <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.4 </t>
+    <t xml:space="preserve">4.1.4 </t>
   </si>
   <si>
     <t>Transport Details</t>
@@ -789,7 +823,7 @@
     <t>cmip6.atmoschem.transport.transport_details</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Emissions Concentrations</t>
@@ -798,7 +832,7 @@
     <t>Atmospheric chemistry emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
@@ -807,7 +841,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
@@ -816,13 +850,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Surface Emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1 </t>
+    <t xml:space="preserve">5.2.1 </t>
   </si>
   <si>
     <t>Overview of  in atmoschem model.</t>
@@ -831,7 +865,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.2 </t>
+    <t xml:space="preserve">5.2.2 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -861,7 +895,7 @@
     <t>Other: bare ground</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.3 </t>
+    <t xml:space="preserve">5.2.3 </t>
   </si>
   <si>
     <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
@@ -882,7 +916,7 @@
     <t>Interactive</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.4 </t>
+    <t xml:space="preserve">5.2.4 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -897,7 +931,7 @@
     <t>CO, CH2O, NO, C3H6, isoprene, C2H6, C2H4, C4H10, terpenes, C3H8, acetone, CH3OH, C2H5OH, H2, SO2, NH3</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.5 </t>
+    <t xml:space="preserve">5.2.5 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -909,7 +943,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.6 </t>
+    <t xml:space="preserve">5.2.6 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -924,7 +958,7 @@
     <t>DMS</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.7 </t>
+    <t xml:space="preserve">5.2.7 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -936,7 +970,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
@@ -945,7 +979,7 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1 </t>
+    <t xml:space="preserve">5.3.1 </t>
   </si>
   <si>
     <t>Overview of to do in atmoschem model.</t>
@@ -954,7 +988,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.2 </t>
+    <t xml:space="preserve">5.3.2 </t>
   </si>
   <si>
     <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
@@ -975,7 +1009,7 @@
     <t>Other: volcanoes</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.3 </t>
+    <t xml:space="preserve">5.3.3 </t>
   </si>
   <si>
     <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
@@ -984,7 +1018,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.4 </t>
+    <t xml:space="preserve">5.3.4 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
@@ -993,7 +1027,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.5 </t>
+    <t xml:space="preserve">5.3.5 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
@@ -1002,7 +1036,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.6 </t>
+    <t xml:space="preserve">5.3.6 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
@@ -1011,7 +1045,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.7 </t>
+    <t xml:space="preserve">5.3.7 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
@@ -1020,19 +1054,19 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1 </t>
+    <t xml:space="preserve">5.4.1 </t>
   </si>
   <si>
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.2 </t>
+    <t xml:space="preserve">5.4.2 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1047,7 +1081,7 @@
     <t>CH4, N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.3 </t>
+    <t xml:space="preserve">5.4.3 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1059,13 +1093,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Atmospheric gas phase chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
@@ -1074,7 +1108,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
@@ -1083,7 +1117,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.3 </t>
+    <t xml:space="preserve">6.1.3 </t>
   </si>
   <si>
     <t>Species</t>
@@ -1125,7 +1159,7 @@
     <t>Other: sox</t>
   </si>
   <si>
-    <t>5.1.4 *</t>
+    <t>6.1.4 *</t>
   </si>
   <si>
     <t>Number Of Bimolecular Reactions</t>
@@ -1137,7 +1171,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
   </si>
   <si>
-    <t>5.1.5 *</t>
+    <t>6.1.5 *</t>
   </si>
   <si>
     <t>Number Of Termolecular Reactions</t>
@@ -1149,7 +1183,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
   </si>
   <si>
-    <t>5.1.6 *</t>
+    <t>6.1.6 *</t>
   </si>
   <si>
     <t>Number Of Tropospheric Heterogenous Reactions</t>
@@ -1161,7 +1195,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>5.1.7 *</t>
+    <t>6.1.7 *</t>
   </si>
   <si>
     <t>Number Of Stratospheric Heterogenous Reactions</t>
@@ -1173,7 +1207,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>5.1.8 *</t>
+    <t>6.1.8 *</t>
   </si>
   <si>
     <t>Number Of Advected Species</t>
@@ -1185,7 +1219,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
   </si>
   <si>
-    <t>5.1.9 *</t>
+    <t>6.1.9 *</t>
   </si>
   <si>
     <t>Number Of Steady State Species</t>
@@ -1197,7 +1231,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>5.1.10 *</t>
+    <t>6.1.10 *</t>
   </si>
   <si>
     <t>Interactive Dry Deposition</t>
@@ -1209,7 +1243,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>5.1.11 *</t>
+    <t>6.1.11 *</t>
   </si>
   <si>
     <t>Wet Deposition</t>
@@ -1221,7 +1255,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
   </si>
   <si>
-    <t>5.1.12 *</t>
+    <t>6.1.12 *</t>
   </si>
   <si>
     <t>Wet Oxidation</t>
@@ -1233,7 +1267,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Chemistry</t>
@@ -1242,7 +1276,7 @@
     <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">7.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1251,7 +1285,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">7.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1260,7 +1294,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">7.1.3 </t>
   </si>
   <si>
     <t>Gas Phase Species</t>
@@ -1272,7 +1306,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.4 </t>
+    <t xml:space="preserve">7.1.4 </t>
   </si>
   <si>
     <t>Aerosol Species</t>
@@ -1299,7 +1333,7 @@
     <t>STS (supercooled ternary solution aerosol particule))</t>
   </si>
   <si>
-    <t>6.1.5 *</t>
+    <t>7.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
@@ -1308,7 +1342,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>6.1.6 *</t>
+    <t>7.1.6 *</t>
   </si>
   <si>
     <t>Sedimentation</t>
@@ -1320,7 +1354,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
   </si>
   <si>
-    <t>6.1.7 *</t>
+    <t>7.1.7 *</t>
   </si>
   <si>
     <t>Coagulation</t>
@@ -1332,7 +1366,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Chemistry</t>
@@ -1341,7 +1375,7 @@
     <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">8.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1350,7 +1384,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">8.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1359,7 +1393,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.3 </t>
+    <t xml:space="preserve">8.1.3 </t>
   </si>
   <si>
     <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1371,7 +1405,7 @@
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">8.1.4 </t>
   </si>
   <si>
     <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1404,7 +1438,7 @@
     <t>Particulate organic matter</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>8.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1413,13 +1447,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>8.1.6 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>8.1.7 *</t>
   </si>
   <si>
     <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
@@ -1428,13 +1462,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>Atmospheric chemistry photo chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">9.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the photo chemistry in atmoschem model.</t>
@@ -1443,7 +1477,7 @@
     <t>cmip6.atmoschem.photo_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.2 </t>
+    <t xml:space="preserve">9.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
@@ -1455,7 +1489,7 @@
     <t>Clear-sky photolysis frequencies are calculated using a multivariate interpolation table derived from the Tropospheric Ultraviolet-Visible radiation model (Madronich and Flocke, 1998), with an adjustment applied for the effects of large-scale clouds, as described by Brasseur et al. (1998).</t>
   </si>
   <si>
-    <t>8.1.3 *</t>
+    <t>9.1.3 *</t>
   </si>
   <si>
     <t>Number Of Reactions</t>
@@ -1467,7 +1501,7 @@
     <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
   </si>
   <si>
-    <t>8.2</t>
+    <t>9.2</t>
   </si>
   <si>
     <t>Photo Chemistry --&gt; Photolysis</t>
@@ -1476,7 +1510,7 @@
     <t>Photolysis scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2.1 </t>
+    <t xml:space="preserve">9.2.1 </t>
   </si>
   <si>
     <t>Overview of photolysis scheme in atmoschem model.</t>
@@ -1485,7 +1519,7 @@
     <t>cmip6.atmoschem.photo_chemistry.photolysis.overview</t>
   </si>
   <si>
-    <t>8.2.2 *</t>
+    <t>9.2.2 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
@@ -1500,7 +1534,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2.3 </t>
+    <t xml:space="preserve">9.2.3 </t>
   </si>
   <si>
     <t>Environmental Conditions</t>
@@ -1516,7 +1550,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1558,9 +1592,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1585,14 +1618,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1642,7 +1683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1659,10 +1700,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1674,11 +1712,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1974,7 +2018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD19"/>
+  <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2065,31 +2109,324 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="24" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="24" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="24" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:29" ht="24" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="24" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="24" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1">
+      <c r="B31" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AC27</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD170"/>
   <sheetViews>
@@ -2104,286 +2441,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>24</v>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>34</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>35</v>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>37</v>
+      <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>39</v>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>40</v>
+      <c r="B15" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>42</v>
+      <c r="A18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>45</v>
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>46</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>54</v>
+      <c r="A26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>56</v>
+      <c r="A27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>59</v>
+      <c r="A30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>61</v>
+      <c r="A31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="B32" s="12" t="s">
-        <v>46</v>
+      <c r="B32" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>64</v>
+      <c r="A35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>67</v>
+      <c r="A36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="24" customHeight="1">
@@ -2392,44 +2729,44 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>69</v>
+      <c r="A39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>72</v>
+      <c r="A40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="24" customHeight="1">
       <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:28" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>74</v>
+      <c r="A43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>76</v>
+      <c r="A44" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="24" customHeight="1">
@@ -2438,174 +2775,174 @@
       </c>
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>78</v>
+      <c r="A48" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="7" t="s">
-        <v>79</v>
+      <c r="B49" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>81</v>
+      <c r="A51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>83</v>
+      <c r="A52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>85</v>
+      <c r="A55" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>87</v>
+      <c r="A56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>89</v>
+      <c r="A59" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>91</v>
+      <c r="A60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="12" t="s">
-        <v>35</v>
+      <c r="B61" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="B62" s="11"/>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>93</v>
+      <c r="A65" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="B66" s="7" t="s">
-        <v>94</v>
+      <c r="B66" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
-      <c r="A68" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>37</v>
+      <c r="A68" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>97</v>
+      <c r="A69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="B70" s="11"/>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>99</v>
+      <c r="A72" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>101</v>
+      <c r="A73" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AA74" s="5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AB74" s="5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AC74" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>105</v>
+      <c r="A76" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>107</v>
+      <c r="A77" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
@@ -2614,22 +2951,22 @@
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>109</v>
+      <c r="A80" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>111</v>
+      <c r="A81" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -2638,489 +2975,489 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>113</v>
+      <c r="A84" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>115</v>
+      <c r="A85" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>117</v>
+      <c r="A88" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>119</v>
+      <c r="A89" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="B90" s="11"/>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>121</v>
+      <c r="A92" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>123</v>
+      <c r="A93" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="B94" s="11"/>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>125</v>
+      <c r="A96" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>127</v>
+      <c r="A97" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="24" customHeight="1">
       <c r="B98" s="11"/>
       <c r="AA98" s="5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AB98" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AC98" s="5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AD98" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AE98" s="5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AF98" s="5" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AG98" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AH98" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="AI98" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="24" customHeight="1">
-      <c r="A101" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>137</v>
+      <c r="A101" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="24" customHeight="1">
-      <c r="B102" s="7"/>
+      <c r="B102" s="13"/>
     </row>
     <row r="104" spans="1:35" ht="24" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>139</v>
+      <c r="A104" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:35" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>141</v>
+      <c r="A105" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="24" customHeight="1">
       <c r="B106" s="11"/>
     </row>
     <row r="108" spans="1:35" ht="24" customHeight="1">
-      <c r="A108" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>143</v>
+      <c r="A108" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="24" customHeight="1">
-      <c r="A109" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>145</v>
+      <c r="A109" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:35" ht="24" customHeight="1">
       <c r="B110" s="11"/>
     </row>
     <row r="112" spans="1:35" ht="24" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>147</v>
+      <c r="A112" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>149</v>
+      <c r="A113" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>151</v>
+      <c r="A116" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>153</v>
+      <c r="A117" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="B118" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>155</v>
+      <c r="A120" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>157</v>
+      <c r="A121" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11"/>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>159</v>
+      <c r="A124" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>161</v>
+      <c r="A125" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="11"/>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>163</v>
+      <c r="A128" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>165</v>
+      <c r="A129" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>167</v>
+      <c r="A132" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>169</v>
+      <c r="A133" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="B134" s="11"/>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>171</v>
+      <c r="A136" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>173</v>
+      <c r="A137" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="B138" s="11"/>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>175</v>
+      <c r="A140" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>177</v>
+      <c r="A141" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="B142" s="11"/>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>179</v>
+      <c r="A145" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="7" t="s">
-        <v>180</v>
+      <c r="B146" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>37</v>
+      <c r="A148" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>183</v>
+      <c r="A149" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="B150" s="11"/>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>185</v>
+      <c r="A152" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>187</v>
+      <c r="A153" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="12" t="s">
-        <v>40</v>
+      <c r="B154" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="178" customHeight="1">
       <c r="B155" s="11"/>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>189</v>
+      <c r="A157" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>191</v>
+      <c r="A158" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="B159" s="12" t="s">
-        <v>35</v>
+      <c r="B159" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="B160" s="11"/>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="A162" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>193</v>
+      <c r="A162" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="A163" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>195</v>
+      <c r="A163" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="B164" s="12" t="s">
-        <v>35</v>
+      <c r="B164" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="B165" s="11"/>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="A167" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>197</v>
+      <c r="A167" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="A168" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>199</v>
+      <c r="A168" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="B169" s="12" t="s">
-        <v>35</v>
+      <c r="B169" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
@@ -3208,7 +3545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
@@ -3223,229 +3560,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>201</v>
+      <c r="A1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>202</v>
+      <c r="B2" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>205</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
+      <c r="A8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>208</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>40</v>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>210</v>
+      <c r="A13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>212</v>
+      <c r="A14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>214</v>
+      <c r="A18" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>215</v>
+      <c r="B19" s="13" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>37</v>
+      <c r="A21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>218</v>
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>26</v>
+      <c r="A25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>221</v>
+      <c r="A26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>223</v>
+      <c r="A29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>225</v>
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>227</v>
+      <c r="A33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>229</v>
+      <c r="A34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>231</v>
+      <c r="A37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>233</v>
+      <c r="A38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>235</v>
+      <c r="A41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>237</v>
+      <c r="A42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3470,7 +3807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
@@ -3485,111 +3822,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>239</v>
+      <c r="A1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>240</v>
+      <c r="B2" s="13" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>243</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
+      <c r="A8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>246</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>40</v>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>248</v>
+      <c r="A13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>250</v>
+      <c r="A14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>252</v>
+      <c r="A17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>254</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>40</v>
+      <c r="B19" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3605,7 +3942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD111"/>
   <sheetViews>
@@ -3620,747 +3957,747 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>256</v>
+      <c r="A1" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>257</v>
+      <c r="B2" s="13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>260</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
+      <c r="A8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>263</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>40</v>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>265</v>
+      <c r="A14" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>37</v>
+      <c r="A17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>268</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>270</v>
+      <c r="A21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>272</v>
+      <c r="A22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="12" t="s">
-        <v>46</v>
+      <c r="B23" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="B26" s="11" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AF27" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>99</v>
+      <c r="A29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>281</v>
+      <c r="A30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="B31" s="12" t="s">
-        <v>46</v>
+      <c r="B31" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="5" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>287</v>
+      <c r="A34" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>289</v>
+      <c r="A35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="B36" s="12" t="s">
-        <v>35</v>
+      <c r="B36" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>292</v>
+      <c r="A39" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>294</v>
+      <c r="A40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="12" t="s">
-        <v>35</v>
+      <c r="B41" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>296</v>
+      <c r="A44" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>298</v>
+      <c r="A45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="12" t="s">
-        <v>35</v>
+      <c r="B46" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>301</v>
+      <c r="A49" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>303</v>
+      <c r="A50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="12" t="s">
-        <v>35</v>
+      <c r="B51" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>305</v>
+      <c r="A55" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="B56" s="7" t="s">
-        <v>306</v>
+      <c r="B56" s="13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>37</v>
+      <c r="A58" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>309</v>
+      <c r="A59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="B60" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>270</v>
+      <c r="A62" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>312</v>
+      <c r="A63" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="B64" s="12" t="s">
-        <v>46</v>
+      <c r="B64" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AA65" s="5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AB65" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AD65" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AE65" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AA66" s="5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AB66" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AD66" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AE66" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AE67" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="24" customHeight="1">
       <c r="B68" s="11" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="AA68" s="5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AB68" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AD68" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AE68" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>99</v>
+      <c r="A70" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>319</v>
+      <c r="A71" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="24" customHeight="1">
-      <c r="B72" s="12" t="s">
-        <v>46</v>
+      <c r="B72" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="5" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AB73" s="5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AC73" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AD73" s="5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AE73" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>287</v>
+      <c r="A75" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>322</v>
+      <c r="A76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
-      <c r="B77" s="12" t="s">
-        <v>35</v>
+      <c r="B77" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>292</v>
+      <c r="A80" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>325</v>
+      <c r="A81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="12" t="s">
-        <v>35</v>
+      <c r="B82" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="B83" s="11"/>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>296</v>
+      <c r="A85" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>328</v>
+      <c r="A86" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="12" t="s">
-        <v>35</v>
+      <c r="B87" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>301</v>
+      <c r="A90" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>331</v>
+      <c r="A91" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="12" t="s">
-        <v>35</v>
+      <c r="B92" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="11"/>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>333</v>
+      <c r="A96" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="7" t="s">
-        <v>306</v>
+      <c r="B97" s="13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>37</v>
+      <c r="A99" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>335</v>
+      <c r="A100" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="11"/>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>337</v>
+      <c r="A103" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>339</v>
+      <c r="A104" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="12" t="s">
-        <v>35</v>
+      <c r="B105" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="11" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>342</v>
+      <c r="A108" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>344</v>
+      <c r="A109" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="12" t="s">
-        <v>35</v>
+      <c r="B110" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -4403,7 +4740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD60"/>
   <sheetViews>
@@ -4418,423 +4755,423 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>159</v>
+      <c r="A1" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>346</v>
+      <c r="B2" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>349</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
+      <c r="A8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>352</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>40</v>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>354</v>
+      <c r="A13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>356</v>
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>46</v>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AD18" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG20" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>368</v>
+      <c r="A26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>370</v>
+      <c r="A27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
@@ -4843,22 +5180,22 @@
       </c>
     </row>
     <row r="30" spans="1:36" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>372</v>
+      <c r="A30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>374</v>
+      <c r="A31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
@@ -4867,88 +5204,88 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>376</v>
+      <c r="A34" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>378</v>
+      <c r="A35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>380</v>
+      <c r="A38" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>382</v>
+      <c r="A39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>384</v>
+      <c r="A42" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>386</v>
+      <c r="A43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>388</v>
+      <c r="A46" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>390</v>
+      <c r="A47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -4957,44 +5294,44 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>392</v>
+      <c r="A50" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>394</v>
+      <c r="A51" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>396</v>
+      <c r="A54" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>398</v>
+      <c r="A55" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -5003,22 +5340,22 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>400</v>
+      <c r="A58" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>402</v>
+      <c r="A59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5087,7 +5424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD36"/>
   <sheetViews>
@@ -5102,214 +5439,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>404</v>
+      <c r="A1" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>405</v>
+      <c r="B2" s="13" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>408</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
+      <c r="A8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>411</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>40</v>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>413</v>
+      <c r="A13" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>415</v>
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>46</v>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>417</v>
+      <c r="A20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>419</v>
+      <c r="A21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="B22" s="12" t="s">
-        <v>46</v>
+      <c r="B22" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>388</v>
+      <c r="A26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>427</v>
+      <c r="A27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -5318,22 +5655,22 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>429</v>
+      <c r="A30" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>431</v>
+      <c r="A31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -5342,22 +5679,22 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>433</v>
+      <c r="A34" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>435</v>
+      <c r="A35" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5396,7 +5733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
@@ -5411,216 +5748,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>437</v>
+      <c r="A1" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>438</v>
+      <c r="B2" s="13" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>441</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
+      <c r="A8" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>444</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>40</v>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>413</v>
+      <c r="A13" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>447</v>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>35</v>
+      <c r="B15" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>417</v>
+      <c r="A18" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>451</v>
+      <c r="A19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>46</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>388</v>
+      <c r="A23" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>462</v>
+      <c r="A24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>392</v>
+      <c r="A27" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>464</v>
+      <c r="A28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>433</v>
+      <c r="A31" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>467</v>
+      <c r="A32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -5645,209 +5982,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-    </row>
-    <row r="25" spans="1:29" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA27" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmoschem.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmoschem.xlsx
@@ -46,7 +46,7 @@
     <t>GFDL-AM4</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmospheric Chemistry</t>

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmoschem.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmoschem.xlsx
@@ -8,22 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Emissions Concentrations" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
-    <sheet name="8. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
-    <sheet name="9. Photo Chemistry" sheetId="10" r:id="rId10"/>
+    <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="3. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="4. Emissions Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="5. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
+    <sheet name="6. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
+    <sheet name="7. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
+    <sheet name="8. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="491">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -52,34 +52,31 @@
     <t>Atmospheric Chemistry</t>
   </si>
   <si>
-    <t>Sub-Topics</t>
-  </si>
-  <si>
-    <t>1. Parties &amp; Citations</t>
-  </si>
-  <si>
-    <t>2. Key Properties</t>
-  </si>
-  <si>
-    <t>3. Grid</t>
-  </si>
-  <si>
-    <t>4. Transport</t>
-  </si>
-  <si>
-    <t>5. Emissions Concentrations</t>
-  </si>
-  <si>
-    <t>6. Gas Phase Chemistry</t>
-  </si>
-  <si>
-    <t>7. Stratospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>8. Tropospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>9. Photo Chemistry</t>
+    <t>Sub-Processes</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Transport</t>
+  </si>
+  <si>
+    <t>4. Emissions Concentrations</t>
+  </si>
+  <si>
+    <t>5. Gas Phase Chemistry</t>
+  </si>
+  <si>
+    <t>6. Stratospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>7. Tropospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>8. Photo Chemistry</t>
   </si>
   <si>
     <t>How To Use</t>
@@ -100,51 +97,66 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>1.</t>
+    <t>Spreadsheet Generator Version</t>
+  </si>
+  <si>
+    <t>Initialised By</t>
+  </si>
+  <si>
+    <t>Internal notes</t>
   </si>
   <si>
     <t>Parties &amp; Citations</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Parties</t>
+    <t>NOTE: Multiple entries are allowed.  To enter a new row, copy &amp; paste an existing row, and edit accordingly.</t>
+  </si>
+  <si>
+    <t>Responsible Parties</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-responsible-party-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter responsible party identifiers below, one identifier per line.  You can optionally specify a role.</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-citation-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter citation identifiers below, one identifier per line.  You can optionally specify a process.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Key Properties</t>
+  </si>
+  <si>
+    <t>Key properties of the atmospheric chemistry</t>
+  </si>
+  <si>
+    <t>1.1.1.1 *</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
-  </si>
-  <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Citations</t>
-  </si>
-  <si>
-    <t>Mnemonic references to citations</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Key Properties</t>
-  </si>
-  <si>
-    <t>Key properties of the atmospheric chemistry</t>
-  </si>
-  <si>
-    <t>2.1.1 *</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Name of atmoschem model code</t>
   </si>
   <si>
@@ -154,7 +166,7 @@
     <t>GFDL atmospheric chemistry</t>
   </si>
   <si>
-    <t>2.1.2 *</t>
+    <t>1.1.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -169,7 +181,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>1.1.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -184,7 +196,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>2.1.4 *</t>
+    <t>1.1.1.4 *</t>
   </si>
   <si>
     <t>Chemistry Scheme Scope</t>
@@ -202,7 +214,7 @@
     <t>Other: troposphere</t>
   </si>
   <si>
-    <t>Troposhere</t>
+    <t>Troposphere</t>
   </si>
   <si>
     <t>Stratosphere</t>
@@ -214,10 +226,10 @@
     <t>Whole atmosphere</t>
   </si>
   <si>
-    <t>Other: document to the right</t>
-  </si>
-  <si>
-    <t>2.1.5 *</t>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -232,7 +244,7 @@
     <t>Lumped higher hydrocarbon species and oxidation products, parameterized source of Cly and Bry in stratosphere, short-lived species not advected</t>
   </si>
   <si>
-    <t>2.1.6 *</t>
+    <t>1.1.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -247,7 +259,7 @@
     <t>3D mass/mixing ratio for gas</t>
   </si>
   <si>
-    <t>2.1.7 *</t>
+    <t>1.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -262,7 +274,7 @@
     <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>2.1.8 *</t>
+    <t>1.1.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -277,7 +289,7 @@
     <t>cmip6.atmoschem.key_properties.family_approach</t>
   </si>
   <si>
-    <t>2.1.9 *</t>
+    <t>1.1.1.9 *</t>
   </si>
   <si>
     <t>Coupling With Chemical Reactivity</t>
@@ -289,7 +301,7 @@
     <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -298,7 +310,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -310,7 +322,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.2 </t>
+    <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -322,7 +334,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -334,7 +346,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -343,16 +355,7 @@
     <t>Timestepping in the atmospheric chemistry model</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of timestepping in the atmospheric chemistry model in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.overview</t>
-  </si>
-  <si>
-    <t>2.3.2 *</t>
+    <t>1.3.1.1 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -370,7 +373,7 @@
     <t>Integrated</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.3 </t>
+    <t xml:space="preserve">1.3.1.2 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -382,7 +385,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.4 </t>
+    <t xml:space="preserve">1.3.1.3 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -394,7 +397,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.5 </t>
+    <t xml:space="preserve">1.3.1.4 </t>
   </si>
   <si>
     <t>Split Operator Chemistry Timestep</t>
@@ -406,7 +409,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.6 </t>
+    <t xml:space="preserve">1.3.1.5 </t>
   </si>
   <si>
     <t>Split Operator Alternate Order</t>
@@ -418,7 +421,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
   </si>
   <si>
-    <t>2.3.7 *</t>
+    <t>1.3.1.6 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -430,7 +433,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>2.3.8 *</t>
+    <t>1.3.1.7 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -466,13 +469,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>1.3.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.1 </t>
+    <t xml:space="preserve">1.3.2.1 </t>
   </si>
   <si>
     <t>Turbulence</t>
@@ -484,7 +487,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.2 </t>
+    <t xml:space="preserve">1.3.2.2 </t>
   </si>
   <si>
     <t>Convection</t>
@@ -496,7 +499,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">1.3.2.3 </t>
   </si>
   <si>
     <t>Precipitation</t>
@@ -508,7 +511,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.4 </t>
+    <t xml:space="preserve">1.3.2.4 </t>
   </si>
   <si>
     <t>Emissions</t>
@@ -520,7 +523,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.5 </t>
+    <t xml:space="preserve">1.3.2.5 </t>
   </si>
   <si>
     <t>Deposition</t>
@@ -532,7 +535,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.6 </t>
+    <t xml:space="preserve">1.3.2.6 </t>
   </si>
   <si>
     <t>Gas Phase Chemistry</t>
@@ -544,7 +547,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.7 </t>
+    <t xml:space="preserve">1.3.2.7 </t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Phase Chemistry</t>
@@ -556,7 +559,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.8 </t>
+    <t xml:space="preserve">1.3.2.8 </t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Phase Chemistry</t>
@@ -568,7 +571,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.9 </t>
+    <t xml:space="preserve">1.3.2.9 </t>
   </si>
   <si>
     <t>Photo Chemistry</t>
@@ -580,7 +583,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.10 </t>
+    <t xml:space="preserve">1.3.2.10 </t>
   </si>
   <si>
     <t>Aerosols</t>
@@ -592,7 +595,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -601,16 +604,7 @@
     <t>Tuning methodology for atmospheric chemistry component</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of tuning methodology for atmospheric chemistry component in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.tuning_applied.overview</t>
-  </si>
-  <si>
-    <t>2.5.2 *</t>
+    <t>1.4.1.1 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -622,7 +616,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.3 </t>
+    <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -634,7 +628,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.4 </t>
+    <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -646,7 +640,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.5 </t>
+    <t xml:space="preserve">1.4.1.4 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -658,7 +652,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -667,7 +661,7 @@
     <t>Atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">2.1.1.1 </t>
   </si>
   <si>
     <t>Name of grid in atmoschem model.</t>
@@ -676,7 +670,7 @@
     <t>cmip6.atmoschem.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in atmoschem model.</t>
@@ -685,7 +679,7 @@
     <t>cmip6.atmoschem.grid.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>2.1.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -697,7 +691,7 @@
     <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -706,16 +700,7 @@
     <t>Resolution in the atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the atmospheric chemistry grid in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.resolution.overview</t>
-  </si>
-  <si>
-    <t>3.2.2 *</t>
+    <t>2.2.1.1 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -724,7 +709,7 @@
     <t>cmip6.atmoschem.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.3 </t>
+    <t xml:space="preserve">2.2.1.2 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -736,7 +721,7 @@
     <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.4 </t>
+    <t xml:space="preserve">2.2.1.3 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -748,7 +733,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.5 </t>
+    <t xml:space="preserve">2.2.1.4 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -760,7 +745,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.6 </t>
+    <t xml:space="preserve">2.2.1.5 </t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -772,7 +757,7 @@
     <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -781,7 +766,7 @@
     <t>Atmospheric chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">3.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in atmoschem model.</t>
@@ -790,7 +775,7 @@
     <t>cmip6.atmoschem.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
@@ -799,7 +784,7 @@
     <t>cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>3.1.1.3 *</t>
   </si>
   <si>
     <t>Use Atmospheric Transport</t>
@@ -811,7 +796,7 @@
     <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.4 </t>
+    <t xml:space="preserve">3.1.1.4 </t>
   </si>
   <si>
     <t>Transport Details</t>
@@ -823,7 +808,7 @@
     <t>cmip6.atmoschem.transport.transport_details</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Emissions Concentrations</t>
@@ -832,7 +817,7 @@
     <t>Atmospheric chemistry emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">4.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
@@ -841,7 +826,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">4.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
@@ -850,22 +835,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
-    <t>5.2</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Surface Emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of  in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.2 </t>
+    <t xml:space="preserve">4.2.1.1 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -895,7 +871,7 @@
     <t>Other: bare ground</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.3 </t>
+    <t xml:space="preserve">4.2.1.2 </t>
   </si>
   <si>
     <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
@@ -916,7 +892,7 @@
     <t>Interactive</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.4 </t>
+    <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -931,7 +907,7 @@
     <t>CO, CH2O, NO, C3H6, isoprene, C2H6, C2H4, C4H10, terpenes, C3H8, acetone, CH3OH, C2H5OH, H2, SO2, NH3</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.5 </t>
+    <t xml:space="preserve">4.2.1.4 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -943,7 +919,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.6 </t>
+    <t xml:space="preserve">4.2.1.5 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -958,7 +934,7 @@
     <t>DMS</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.7 </t>
+    <t xml:space="preserve">4.2.1.6 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -970,7 +946,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>5.3</t>
+    <t>4.3.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
@@ -979,16 +955,7 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of to do in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.2 </t>
+    <t xml:space="preserve">4.3.1.1 </t>
   </si>
   <si>
     <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
@@ -1009,7 +976,7 @@
     <t>Other: volcanoes</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.3 </t>
+    <t xml:space="preserve">4.3.1.2 </t>
   </si>
   <si>
     <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
@@ -1018,7 +985,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.4 </t>
+    <t xml:space="preserve">4.3.1.3 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
@@ -1027,7 +994,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.5 </t>
+    <t xml:space="preserve">4.3.1.4 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
@@ -1036,7 +1003,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.6 </t>
+    <t xml:space="preserve">4.3.1.5 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
@@ -1045,7 +1012,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.7 </t>
+    <t xml:space="preserve">4.3.1.6 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
@@ -1054,19 +1021,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>5.4</t>
+    <t>4.4.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.1 </t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.concentrations.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2 </t>
+    <t xml:space="preserve">4.4.1.1 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1081,7 +1042,7 @@
     <t>CH4, N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.3 </t>
+    <t xml:space="preserve">4.4.1.2 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1093,13 +1054,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <t>Atmospheric gas phase chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">5.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
@@ -1108,7 +1069,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
@@ -1117,7 +1078,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">5.1.1.3 </t>
   </si>
   <si>
     <t>Species</t>
@@ -1159,7 +1120,7 @@
     <t>Other: sox</t>
   </si>
   <si>
-    <t>6.1.4 *</t>
+    <t>5.1.1.4 *</t>
   </si>
   <si>
     <t>Number Of Bimolecular Reactions</t>
@@ -1171,7 +1132,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
   </si>
   <si>
-    <t>6.1.5 *</t>
+    <t>5.1.1.5 *</t>
   </si>
   <si>
     <t>Number Of Termolecular Reactions</t>
@@ -1183,7 +1144,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
   </si>
   <si>
-    <t>6.1.6 *</t>
+    <t>5.1.1.6 *</t>
   </si>
   <si>
     <t>Number Of Tropospheric Heterogenous Reactions</t>
@@ -1195,7 +1156,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>6.1.7 *</t>
+    <t>5.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Stratospheric Heterogenous Reactions</t>
@@ -1207,7 +1168,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>6.1.8 *</t>
+    <t>5.1.1.8 *</t>
   </si>
   <si>
     <t>Number Of Advected Species</t>
@@ -1219,7 +1180,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
   </si>
   <si>
-    <t>6.1.9 *</t>
+    <t>5.1.1.9 *</t>
   </si>
   <si>
     <t>Number Of Steady State Species</t>
@@ -1231,7 +1192,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>6.1.10 *</t>
+    <t>5.1.1.10 *</t>
   </si>
   <si>
     <t>Interactive Dry Deposition</t>
@@ -1243,7 +1204,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>6.1.11 *</t>
+    <t>5.1.1.11 *</t>
   </si>
   <si>
     <t>Wet Deposition</t>
@@ -1255,7 +1216,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
   </si>
   <si>
-    <t>6.1.12 *</t>
+    <t>5.1.1.12 *</t>
   </si>
   <si>
     <t>Wet Oxidation</t>
@@ -1267,7 +1228,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Chemistry</t>
@@ -1276,7 +1237,7 @@
     <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">6.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1285,7 +1246,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">6.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1294,7 +1255,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.3 </t>
+    <t xml:space="preserve">6.1.1.3 </t>
   </si>
   <si>
     <t>Gas Phase Species</t>
@@ -1306,7 +1267,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">6.1.1.4 </t>
   </si>
   <si>
     <t>Aerosol Species</t>
@@ -1333,7 +1294,7 @@
     <t>STS (supercooled ternary solution aerosol particule))</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>6.1.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
@@ -1342,7 +1303,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>6.1.1.6 *</t>
   </si>
   <si>
     <t>Sedimentation</t>
@@ -1354,7 +1315,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>6.1.1.7 *</t>
   </si>
   <si>
     <t>Coagulation</t>
@@ -1366,7 +1327,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>7.1.1</t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Chemistry</t>
@@ -1375,7 +1336,7 @@
     <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">7.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1384,7 +1345,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.2 </t>
+    <t xml:space="preserve">7.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1393,7 +1354,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.3 </t>
+    <t xml:space="preserve">7.1.1.3 </t>
   </si>
   <si>
     <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1405,7 +1366,7 @@
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.4 </t>
+    <t xml:space="preserve">7.1.1.4 </t>
   </si>
   <si>
     <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1438,7 +1399,7 @@
     <t>Particulate organic matter</t>
   </si>
   <si>
-    <t>8.1.5 *</t>
+    <t>7.1.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1447,13 +1408,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>8.1.6 *</t>
+    <t>7.1.1.6 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>8.1.7 *</t>
+    <t>7.1.1.7 *</t>
   </si>
   <si>
     <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
@@ -1462,13 +1423,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>9.1</t>
+    <t>8.1.1</t>
   </si>
   <si>
     <t>Atmospheric chemistry photo chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1.1 </t>
+    <t xml:space="preserve">8.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the photo chemistry in atmoschem model.</t>
@@ -1477,7 +1438,7 @@
     <t>cmip6.atmoschem.photo_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1.2 </t>
+    <t xml:space="preserve">8.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
@@ -1489,7 +1450,7 @@
     <t>Clear-sky photolysis frequencies are calculated using a multivariate interpolation table derived from the Tropospheric Ultraviolet-Visible radiation model (Madronich and Flocke, 1998), with an adjustment applied for the effects of large-scale clouds, as described by Brasseur et al. (1998).</t>
   </si>
   <si>
-    <t>9.1.3 *</t>
+    <t>8.1.1.3 *</t>
   </si>
   <si>
     <t>Number Of Reactions</t>
@@ -1501,7 +1462,7 @@
     <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
   </si>
   <si>
-    <t>9.2</t>
+    <t>8.2.1</t>
   </si>
   <si>
     <t>Photo Chemistry --&gt; Photolysis</t>
@@ -1510,16 +1471,7 @@
     <t>Photolysis scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of photolysis scheme in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.photo_chemistry.photolysis.overview</t>
-  </si>
-  <si>
-    <t>9.2.2 *</t>
+    <t>8.2.1.1 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
@@ -1534,7 +1486,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.3 </t>
+    <t xml:space="preserve">8.2.1.2 </t>
   </si>
   <si>
     <t>Environmental Conditions</t>
@@ -1550,7 +1502,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,13 +1525,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1598,6 +1556,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
@@ -1605,21 +1570,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1632,8 +1584,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1683,7 +1648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1697,31 +1662,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2018,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:XFD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2109,39 +2077,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2149,99 +2132,99 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>483</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
+      <c r="A8" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>486</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>52</v>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>489</v>
+      <c r="A13" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>491</v>
+      <c r="A14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -2251,101 +2234,79 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>49</v>
+      <c r="A21" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>497</v>
+      <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="25" spans="1:29" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>110</v>
+      <c r="A25" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>499</v>
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="AA27" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B27" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AC23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2354,373 +2315,396 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"Top Level,Key Properties,Grid,Transport,Emissions Concentrations,Gas Phase Chemistry,Stratospheric Heterogeneous Chemistry,Tropospheric Heterogeneous Chemistry,Photo Chemistry"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD170"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>41</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>46</v>
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>47</v>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>49</v>
+      <c r="A13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>51</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>52</v>
+      <c r="B15" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>54</v>
+      <c r="A18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>57</v>
+      <c r="A19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AA21" s="6" t="s">
         <v>63</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA22" s="6" t="s">
         <v>63</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA23" s="6" t="s">
         <v>63</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA24" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="AB24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>65</v>
+      <c r="A26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>67</v>
+      <c r="A27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>70</v>
+      <c r="A30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>72</v>
+      <c r="A31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="24" customHeight="1">
       <c r="B33" s="11"/>
-      <c r="AA33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB33" s="5" t="s">
-        <v>63</v>
+      <c r="AA33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>75</v>
+      <c r="A35" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>78</v>
+      <c r="A36" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="24" customHeight="1">
@@ -2729,44 +2713,44 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>80</v>
+      <c r="A39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>83</v>
+      <c r="A40" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="24" customHeight="1">
       <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:28" ht="24" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" ht="24" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>87</v>
+      <c r="B44" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="24" customHeight="1">
@@ -2776,83 +2760,83 @@
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>92</v>
+      <c r="A51" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>94</v>
+      <c r="A52" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="B53" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>96</v>
+      <c r="A55" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>98</v>
+      <c r="A56" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>100</v>
+      <c r="A59" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>102</v>
+      <c r="A60" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="10" t="s">
-        <v>47</v>
+      <c r="B61" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -2860,89 +2844,91 @@
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
-      <c r="A68" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>49</v>
+      <c r="A68" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>108</v>
+      <c r="A69" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
+      <c r="B70" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA70" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC70" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
-      <c r="A72" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>110</v>
+      <c r="A72" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>112</v>
+      <c r="A73" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="B74" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA74" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB74" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC74" s="5" t="s">
-        <v>63</v>
+      <c r="B74" s="11">
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
-      <c r="A76" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>116</v>
+      <c r="A76" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>118</v>
+      <c r="A77" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
@@ -2951,517 +2937,471 @@
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
-      <c r="A80" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="A80" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C85" s="9" t="s">
+    </row>
+    <row r="81" spans="1:35" ht="24" customHeight="1">
+      <c r="A81" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="C81" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" ht="24" customHeight="1">
+      <c r="B82" s="11"/>
+    </row>
+    <row r="84" spans="1:35" ht="24" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" ht="24" customHeight="1">
+      <c r="A85" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" ht="24" customHeight="1">
       <c r="B86" s="11"/>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="A88" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
+    <row r="88" spans="1:35" ht="24" customHeight="1">
+      <c r="A88" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" ht="24" customHeight="1">
+      <c r="A89" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" ht="24" customHeight="1">
       <c r="B90" s="11"/>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="A92" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
+    <row r="92" spans="1:35" ht="24" customHeight="1">
+      <c r="A92" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" ht="24" customHeight="1">
+      <c r="A93" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" ht="24" customHeight="1">
       <c r="B94" s="11"/>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:35" ht="24" customHeight="1">
-      <c r="A97" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:35" ht="24" customHeight="1">
-      <c r="B98" s="11"/>
-      <c r="AA98" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB98" s="5" t="s">
+      <c r="AA94" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="AC98" s="5" t="s">
+      <c r="AB94" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AD98" s="5" t="s">
+      <c r="AC94" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="AE98" s="5" t="s">
+      <c r="AD94" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="AF98" s="5" t="s">
+      <c r="AE94" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AG98" s="5" t="s">
+      <c r="AF94" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AH98" s="5" t="s">
+      <c r="AG94" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AI98" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:35" ht="24" customHeight="1">
-      <c r="A101" s="12" t="s">
+      <c r="AH94" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="AI94" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="102" spans="1:35" ht="24" customHeight="1">
-      <c r="B102" s="13"/>
-    </row>
-    <row r="104" spans="1:35" ht="24" customHeight="1">
-      <c r="A104" s="7" t="s">
+      <c r="B97" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B104" s="7" t="s">
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="B98" s="13"/>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="105" spans="1:35" ht="24" customHeight="1">
-      <c r="A105" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" s="9" t="s">
+      <c r="B100" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C105" s="9" t="s">
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="106" spans="1:35" ht="24" customHeight="1">
+      <c r="C101" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="B106" s="11"/>
     </row>
-    <row r="108" spans="1:35" ht="24" customHeight="1">
-      <c r="A108" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:35" ht="24" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:35" ht="24" customHeight="1">
+    <row r="108" spans="1:3" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="B110" s="11"/>
     </row>
-    <row r="112" spans="1:35" ht="24" customHeight="1">
-      <c r="A112" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>158</v>
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="A112" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>160</v>
+      <c r="A113" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="B114" s="11"/>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>162</v>
+      <c r="A116" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>164</v>
+      <c r="A117" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="B118" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>166</v>
+      <c r="A120" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>168</v>
+      <c r="A121" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="B122" s="11"/>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>170</v>
+      <c r="A124" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>172</v>
+      <c r="A125" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="11"/>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>174</v>
+      <c r="A128" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>176</v>
+      <c r="A129" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>178</v>
+      <c r="A132" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>180</v>
+      <c r="A133" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="B134" s="11"/>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>182</v>
+      <c r="A136" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>184</v>
+      <c r="A137" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="B138" s="11"/>
     </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>188</v>
+      <c r="A141" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
+      <c r="B142" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24" customHeight="1">
+      <c r="A144" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>190</v>
+      <c r="A145" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="B146" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="178" customHeight="1">
+      <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>29</v>
+      <c r="A149" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="11"/>
+      <c r="A150" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="24" customHeight="1">
+      <c r="B151" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="178" customHeight="1">
-      <c r="B155" s="11"/>
+      <c r="A154" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="A155" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="B156" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>202</v>
-      </c>
+      <c r="B157" s="11"/>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="B159" s="10" t="s">
-        <v>47</v>
+      <c r="A159" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="11"/>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="A162" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="A163" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="B164" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="A167" s="7" t="s">
+      <c r="A160" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="C160" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="A168" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="B169" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
-      <c r="B170" s="11"/>
+    <row r="161" spans="2:2" ht="24" customHeight="1">
+      <c r="B161" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="24" customHeight="1">
+      <c r="B162" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="25">
@@ -3489,8 +3429,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
-      <formula1>AA74:AC74</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+      <formula1>AA70:AC70</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>0</formula1>
@@ -3498,17 +3441,17 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
+      <formula1>AA94:AI94</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B102">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98">
-      <formula1>AA98:AI98</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106">
       <formula1>0</formula1>
@@ -3535,9 +3478,6 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3547,97 +3487,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>52</v>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3645,161 +3585,139 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3816,117 +3734,117 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>254</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
+      <c r="A8" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>257</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>52</v>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>259</v>
+      <c r="A13" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>261</v>
+      <c r="A14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>263</v>
+      <c r="A17" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>265</v>
+      <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="10" t="s">
-        <v>52</v>
+      <c r="B19" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3944,75 +3862,75 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD111"/>
+  <dimension ref="A1:XFD99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>271</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
+      <c r="A8" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>274</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>52</v>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4020,720 +3938,654 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="24" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA20" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="AB20" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="AC20" s="6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="AD20" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE21" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>281</v>
+      <c r="AF21" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="24" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="B25" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="B24" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="AA24" s="5" t="s">
+    </row>
+    <row r="27" spans="1:32" ht="24" customHeight="1">
+      <c r="B27" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="24" customHeight="1">
+      <c r="B28" s="11"/>
+      <c r="AA28" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="AB24" s="5" t="s">
+      <c r="AB28" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="AC24" s="5" t="s">
+      <c r="AC28" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AD24" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AD28" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AF24" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1">
-      <c r="B25" s="11" t="s">
+      <c r="AE28" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="24" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="AA25" s="5" t="s">
+      <c r="B30" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="24" customHeight="1">
+      <c r="A31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="24" customHeight="1">
+      <c r="B32" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="B37" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="A41" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="B42" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="B43" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1">
+      <c r="A46" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1">
+      <c r="B47" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="51" spans="1:31" ht="24" customHeight="1">
+      <c r="A51" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="24" customHeight="1">
+      <c r="B52" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="24" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="24" customHeight="1">
+      <c r="A55" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="24" customHeight="1">
+      <c r="B56" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="24" customHeight="1">
+      <c r="B57" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA57" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB57" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC57" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD57" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE57" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="24" customHeight="1">
+      <c r="B58" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA58" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB58" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC58" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD58" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE58" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1">
+      <c r="B59" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA59" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE59" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="24" customHeight="1">
+      <c r="B60" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA60" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
+      <c r="A63" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="B64" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" ht="24" customHeight="1">
+      <c r="B65" s="11"/>
+      <c r="AA65" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="AB25" s="5" t="s">
+      <c r="AB65" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="AC25" s="5" t="s">
+      <c r="AC65" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AD25" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE25" s="5" t="s">
+      <c r="AD65" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AF25" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="B26" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD26" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE26" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF26" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA27" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD27" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE27" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF27" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="AE65" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" ht="24" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
-      <c r="AA32" s="5" t="s">
+    </row>
+    <row r="68" spans="1:31" ht="24" customHeight="1">
+      <c r="A68" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" ht="24" customHeight="1">
+      <c r="B69" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" ht="24" customHeight="1">
+      <c r="B70" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="AB32" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC32" s="5" t="s">
+    </row>
+    <row r="72" spans="1:31" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="AD32" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE32" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="73" spans="1:31" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" ht="24" customHeight="1">
+      <c r="B74" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" ht="24" customHeight="1">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="77" spans="1:31" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="B36" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="9" t="s">
+    </row>
+    <row r="78" spans="1:31" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" ht="24" customHeight="1">
+      <c r="B79" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" ht="24" customHeight="1">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" s="9" t="s">
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="B56" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="B60" s="11"/>
-    </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="B64" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" ht="24" customHeight="1">
-      <c r="B65" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA65" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB65" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC65" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD65" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE65" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" ht="24" customHeight="1">
-      <c r="B66" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA66" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB66" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC66" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD66" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE66" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" ht="24" customHeight="1">
-      <c r="B67" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA67" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB67" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC67" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD67" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE67" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" ht="24" customHeight="1">
-      <c r="B68" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA68" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB68" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC68" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD68" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE68" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" ht="24" customHeight="1">
-      <c r="A70" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" ht="24" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" ht="24" customHeight="1">
-      <c r="B72" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" ht="24" customHeight="1">
-      <c r="B73" s="11"/>
-      <c r="AA73" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB73" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC73" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD73" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE73" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" ht="24" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" ht="24" customHeight="1">
-      <c r="B77" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" ht="24" customHeight="1">
-      <c r="A80" s="7" t="s">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="B91" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C81" s="9" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="7" t="s">
+      <c r="C92" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="9" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="B94" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="C86" s="9" t="s">
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="7" t="s">
+      <c r="B96" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="9" t="s">
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C97" s="10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="A96" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="B97" s="13" t="s">
-        <v>317</v>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="B98" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="B106" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="B111" s="11"/>
+      <c r="B99" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AF24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AF25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>AA26:AF26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AF27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AE32</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AF20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>AA21:AF21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>AA22:AF22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AF23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>AA28:AE28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
+      <formula1>AA57:AE57</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>AA58:AE58</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>AA59:AE59</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
+      <formula1>AA60:AE60</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
       <formula1>AA65:AE65</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
-      <formula1>AA66:AE66</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AE67</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AE68</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>AA73:AE73</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4749,429 +4601,429 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>360</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
+      <c r="A8" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>363</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>52</v>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>365</v>
+      <c r="A13" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>367</v>
+      <c r="A14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA16" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>63</v>
+        <v>355</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE17" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF17" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH17" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>63</v>
+        <v>359</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD18" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE18" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF18" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH18" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>63</v>
+        <v>363</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF19" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH19" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>63</v>
+        <v>356</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF20" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH20" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>63</v>
+        <v>357</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>63</v>
+        <v>364</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE22" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF22" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG22" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH22" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI22" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>63</v>
+        <v>358</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD23" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE23" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF23" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG23" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH23" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI23" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>63</v>
+        <v>361</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA24" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE24" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF24" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="24" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="24" customHeight="1">
+      <c r="A27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="AG24" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH24" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI24" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" ht="24" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
@@ -5180,22 +5032,22 @@
       </c>
     </row>
     <row r="30" spans="1:36" ht="24" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>383</v>
+      <c r="A30" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>385</v>
+      <c r="A31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
@@ -5204,88 +5056,88 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>387</v>
+      <c r="A34" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>389</v>
+      <c r="A35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>391</v>
+      <c r="A38" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>393</v>
+      <c r="A39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>395</v>
+      <c r="A42" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>397</v>
+      <c r="A43" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>399</v>
+      <c r="A46" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>401</v>
+      <c r="A47" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5294,44 +5146,44 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>403</v>
+      <c r="A50" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>405</v>
+      <c r="A51" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>407</v>
+      <c r="A54" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>409</v>
+      <c r="A55" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -5340,28 +5192,26 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>411</v>
+      <c r="A58" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>413</v>
+      <c r="A59" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="B60" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B60" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="18">
@@ -5433,220 +5283,220 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>419</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
+      <c r="A8" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>422</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>52</v>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>424</v>
+      <c r="A13" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>426</v>
+      <c r="A14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA16" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>370</v>
+        <v>355</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>370</v>
+        <v>359</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>370</v>
+        <v>357</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>428</v>
+      <c r="A20" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>430</v>
+      <c r="A21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="B22" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD23" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE23" s="5" t="s">
-        <v>435</v>
+        <v>418</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA24" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE24" s="5" t="s">
-        <v>435</v>
+        <v>420</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>399</v>
+      <c r="A26" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>438</v>
+      <c r="A27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -5655,22 +5505,22 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>440</v>
+      <c r="A30" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>442</v>
+      <c r="A31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -5679,28 +5529,26 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>444</v>
+      <c r="A34" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>446</v>
+      <c r="A35" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="B36" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B36" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="8">
@@ -5742,228 +5590,226 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>452</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
+      <c r="A8" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>455</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>52</v>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>424</v>
+      <c r="A13" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>458</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>47</v>
+      <c r="B15" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>428</v>
+      <c r="A18" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>462</v>
+      <c r="A19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>470</v>
+        <v>419</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>399</v>
+      <c r="A23" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>473</v>
+      <c r="A24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>403</v>
+      <c r="A27" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>475</v>
+      <c r="A28" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>444</v>
+      <c r="A31" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>478</v>
+      <c r="A32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
-      <c r="B33" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B33" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmoschem.xlsx
+++ b/cmip6/models/gfdl-am4/cmip6_noaa-gfdl_gfdl-am4_atmoschem.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="490">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -211,16 +211,13 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>Other: troposphere</t>
+    <t>Mesosphere</t>
   </si>
   <si>
     <t>Troposphere</t>
   </si>
   <si>
     <t>Stratosphere</t>
-  </si>
-  <si>
-    <t>Mesosphere</t>
   </si>
   <si>
     <t>Whole atmosphere</t>
@@ -2146,20 +2143,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -2170,10 +2167,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -2181,7 +2178,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -2192,10 +2189,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>472</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -2205,26 +2202,26 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -2234,23 +2231,23 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>479</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -2258,32 +2255,32 @@
         <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA23" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AB23" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC23" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
@@ -2291,10 +2288,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>489</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -2550,21 +2547,21 @@
         <v>64</v>
       </c>
       <c r="AC21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AF21" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA22" s="6" t="s">
         <v>63</v>
@@ -2573,21 +2570,21 @@
         <v>64</v>
       </c>
       <c r="AC22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE22" s="6" t="s">
+      <c r="AF22" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA23" s="6" t="s">
         <v>63</v>
@@ -2596,21 +2593,21 @@
         <v>64</v>
       </c>
       <c r="AC23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA24" s="6" t="s">
         <v>63</v>
@@ -2619,24 +2616,24 @@
         <v>64</v>
       </c>
       <c r="AC24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AD24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE24" s="6" t="s">
+      <c r="AF24" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
@@ -2644,23 +2641,23 @@
         <v>43</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
@@ -2668,10 +2665,10 @@
         <v>59</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
@@ -2682,29 +2679,29 @@
     <row r="33" spans="1:28" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="24" customHeight="1">
@@ -2714,21 +2711,21 @@
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="24" customHeight="1">
@@ -2736,21 +2733,21 @@
     </row>
     <row r="43" spans="1:28" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="24" customHeight="1">
@@ -2760,23 +2757,23 @@
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -2784,10 +2781,10 @@
         <v>43</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -2795,10 +2792,10 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -2806,10 +2803,10 @@
         <v>43</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -2817,10 +2814,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -2828,10 +2825,10 @@
         <v>43</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -2844,23 +2841,23 @@
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
       <c r="B66" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
@@ -2868,43 +2865,43 @@
         <v>59</v>
       </c>
       <c r="B69" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="B70" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA70" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB70" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AA70" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="AC70" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
@@ -2914,21 +2911,21 @@
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
@@ -2938,21 +2935,21 @@
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
@@ -2960,21 +2957,21 @@
     </row>
     <row r="84" spans="1:35" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:35" ht="24" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
@@ -2982,21 +2979,21 @@
     </row>
     <row r="88" spans="1:35" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
@@ -3004,10 +3001,10 @@
     </row>
     <row r="92" spans="1:35" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:35" ht="24" customHeight="1">
@@ -3015,48 +3012,48 @@
         <v>59</v>
       </c>
       <c r="B93" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
       <c r="B94" s="11"/>
       <c r="AA94" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB94" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="AB94" s="6" t="s">
+      <c r="AC94" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AC94" s="6" t="s">
+      <c r="AD94" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="AD94" s="6" t="s">
+      <c r="AE94" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="AE94" s="6" t="s">
+      <c r="AF94" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="AF94" s="6" t="s">
+      <c r="AG94" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AG94" s="6" t="s">
+      <c r="AH94" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AH94" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="AI94" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -3064,21 +3061,21 @@
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -3086,21 +3083,21 @@
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B105" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -3108,21 +3105,21 @@
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B109" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
@@ -3130,21 +3127,21 @@
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B113" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -3152,21 +3149,21 @@
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -3174,21 +3171,21 @@
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -3196,21 +3193,21 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -3218,21 +3215,21 @@
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B129" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C129" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -3240,21 +3237,21 @@
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B133" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -3262,21 +3259,21 @@
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="A136" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -3284,23 +3281,23 @@
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="B142" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -3308,10 +3305,10 @@
         <v>43</v>
       </c>
       <c r="B145" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
@@ -3324,10 +3321,10 @@
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
@@ -3335,10 +3332,10 @@
         <v>43</v>
       </c>
       <c r="B150" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
@@ -3351,10 +3348,10 @@
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
@@ -3362,10 +3359,10 @@
         <v>43</v>
       </c>
       <c r="B155" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
@@ -3378,10 +3375,10 @@
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
       <c r="A159" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
@@ -3389,10 +3386,10 @@
         <v>43</v>
       </c>
       <c r="B160" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C160" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="24" customHeight="1">
@@ -3501,20 +3498,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3525,10 +3522,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3536,7 +3533,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3547,10 +3544,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3563,21 +3560,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3585,20 +3582,20 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3609,10 +3606,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3620,10 +3617,10 @@
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3631,10 +3628,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3642,21 +3639,21 @@
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3664,21 +3661,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3686,21 +3683,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -3741,20 +3738,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3765,10 +3762,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3776,7 +3773,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3787,10 +3784,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3803,21 +3800,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3825,10 +3822,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3836,10 +3833,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3876,20 +3873,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3900,10 +3897,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3911,7 +3908,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -3922,10 +3919,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3938,10 +3935,10 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3949,10 +3946,10 @@
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
@@ -3960,10 +3957,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
@@ -3973,102 +3970,102 @@
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA20" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AB20" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AB20" s="6" t="s">
+      <c r="AC20" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AC20" s="6" t="s">
+      <c r="AD20" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE20" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AD20" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="AF20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AA21" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB21" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AB21" s="6" t="s">
+      <c r="AC21" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AD21" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE21" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AD21" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="AF21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE22" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AA22" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="AF22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AA23" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB23" s="6" t="s">
+      <c r="AC23" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE23" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AD23" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="AF23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -4076,10 +4073,10 @@
         <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
@@ -4090,27 +4087,27 @@
     <row r="28" spans="1:32" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB28" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="AB28" s="6" t="s">
+      <c r="AC28" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="AC28" s="6" t="s">
+      <c r="AD28" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AD28" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="AE28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
@@ -4118,10 +4115,10 @@
         <v>43</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
@@ -4131,15 +4128,15 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -4147,10 +4144,10 @@
         <v>43</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -4163,10 +4160,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -4174,10 +4171,10 @@
         <v>43</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -4187,15 +4184,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -4203,10 +4200,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -4219,23 +4216,23 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -4243,10 +4240,10 @@
         <v>59</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -4256,90 +4253,90 @@
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
       <c r="B57" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA57" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB57" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC57" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AA57" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB57" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC57" s="6" t="s">
+      <c r="AD57" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AD57" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="AE57" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
       <c r="B58" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA58" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB58" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC58" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AB58" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC58" s="6" t="s">
+      <c r="AD58" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AD58" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="AE58" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA59" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD59" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AA59" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB59" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC59" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD59" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="AE59" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA60" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC60" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AB60" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC60" s="6" t="s">
+      <c r="AD60" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="AD60" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="AE60" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
@@ -4347,10 +4344,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -4361,27 +4358,27 @@
     <row r="65" spans="1:31" ht="24" customHeight="1">
       <c r="B65" s="11"/>
       <c r="AA65" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB65" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="AB65" s="6" t="s">
+      <c r="AC65" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="AC65" s="6" t="s">
+      <c r="AD65" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AD65" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="AE65" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="24" customHeight="1">
@@ -4389,10 +4386,10 @@
         <v>43</v>
       </c>
       <c r="B68" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
@@ -4402,15 +4399,15 @@
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
       <c r="B70" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="24" customHeight="1">
@@ -4418,10 +4415,10 @@
         <v>43</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
@@ -4434,10 +4431,10 @@
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="24" customHeight="1">
@@ -4445,10 +4442,10 @@
         <v>43</v>
       </c>
       <c r="B78" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="24" customHeight="1">
@@ -4461,10 +4458,10 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4472,10 +4469,10 @@
         <v>43</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -4488,23 +4485,23 @@
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -4512,10 +4509,10 @@
         <v>43</v>
       </c>
       <c r="B92" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -4525,15 +4522,15 @@
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4541,10 +4538,10 @@
         <v>43</v>
       </c>
       <c r="B97" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -4608,20 +4605,20 @@
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4632,10 +4629,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
@@ -4643,7 +4640,7 @@
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -4654,10 +4651,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
@@ -4670,10 +4667,10 @@
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
@@ -4681,10 +4678,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
@@ -4694,336 +4691,336 @@
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA16" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AB16" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="AB16" s="6" t="s">
+      <c r="AC16" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AD16" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AD16" s="6" t="s">
+      <c r="AE16" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="AE16" s="6" t="s">
+      <c r="AF16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG16" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AF16" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG16" s="6" t="s">
+      <c r="AH16" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AH16" s="6" t="s">
+      <c r="AI16" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AI16" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE17" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="AA17" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE17" s="6" t="s">
+      <c r="AF17" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG17" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AF17" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG17" s="6" t="s">
+      <c r="AH17" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AH17" s="6" t="s">
+      <c r="AI17" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AI17" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AA18" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB18" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="AB18" s="6" t="s">
+      <c r="AC18" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="AC18" s="6" t="s">
+      <c r="AD18" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AE18" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="AE18" s="6" t="s">
+      <c r="AF18" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG18" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AF18" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG18" s="6" t="s">
+      <c r="AH18" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AH18" s="6" t="s">
+      <c r="AI18" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AI18" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AC19" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AD19" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AE19" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG19" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AF19" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AH19" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AI19" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AI19" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
       <c r="B20" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="AA20" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC20" s="6" t="s">
+      <c r="AD20" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AE20" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="AE20" s="6" t="s">
+      <c r="AF20" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG20" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AF20" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG20" s="6" t="s">
+      <c r="AH20" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AH20" s="6" t="s">
+      <c r="AI20" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AI20" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA21" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB21" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="AB21" s="6" t="s">
+      <c r="AC21" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AD21" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AE21" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AF21" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG21" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AF21" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG21" s="6" t="s">
+      <c r="AH21" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AH21" s="6" t="s">
+      <c r="AI21" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AI21" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="24" customHeight="1">
       <c r="B22" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD22" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="AA22" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AE22" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="AE22" s="6" t="s">
+      <c r="AF22" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG22" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="AF22" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG22" s="6" t="s">
+      <c r="AH22" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AH22" s="6" t="s">
+      <c r="AI22" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AI22" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH23" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AA23" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH23" s="6" t="s">
+      <c r="AI23" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AI23" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI24" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AA24" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AJ24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
@@ -5033,21 +5030,21 @@
     </row>
     <row r="30" spans="1:36" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>371</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
@@ -5057,21 +5054,21 @@
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5079,21 +5076,21 @@
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5101,21 +5098,21 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5123,21 +5120,21 @@
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5147,21 +5144,21 @@
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5169,21 +5166,21 @@
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -5193,25 +5190,27 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>400</v>
-      </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="B60" s="11"/>
+      <c r="B60" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="18">
@@ -5290,20 +5289,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>401</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5314,10 +5313,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>405</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -5325,7 +5324,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -5336,10 +5335,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -5352,10 +5351,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -5363,10 +5362,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -5376,52 +5375,52 @@
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
@@ -5429,10 +5428,10 @@
         <v>59</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
@@ -5442,61 +5441,61 @@
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA23" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AB23" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="AB23" s="6" t="s">
+      <c r="AC23" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD23" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="AC23" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AE23" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD24" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="AA24" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AE24" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -5506,21 +5505,21 @@
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -5530,25 +5529,27 @@
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="8">
@@ -5597,20 +5598,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5621,10 +5622,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5632,7 +5633,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -5643,10 +5644,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>441</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5659,10 +5660,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5670,10 +5671,10 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5683,15 +5684,15 @@
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
@@ -5699,10 +5700,10 @@
         <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
@@ -5712,56 +5713,56 @@
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH21" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="AA21" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF21" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AG21" s="6" t="s">
+      <c r="AI21" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="AH21" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="AI21" s="6" t="s">
+      <c r="AJ21" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
@@ -5769,21 +5770,21 @@
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
@@ -5791,25 +5792,27 @@
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
